--- a/01__1.1__Total_Grades/1__5.1__Transcripts__2.5_year/Grades_details/20191015 - 应物1601奖学金.xlsx
+++ b/01__1.1__Total_Grades/1__5.1__Transcripts__2.5_year/Grades_details/20191015 - 应物1601奖学金.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\班长\德育分\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C2D\Desktop\Code\Document\undergraduate_courses\01__1.1__Total_Grades\1__5.1__Transcripts__2.5_year\Grades_details\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A608B9DD-A9BD-45E6-BA2D-E20802C36C64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F80BA18-677B-464F-9DA7-62D0E4F3C608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="1820" windowWidth="34210" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="计算模板" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">加分明细!$A$1:$L$41</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1446,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1464,9 +1470,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1523,7 +1526,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1538,22 +1541,13 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1563,13 +1557,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1620,9 +1614,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1660,9 +1654,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1695,26 +1689,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1747,26 +1724,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1942,178 +1902,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="28" max="33" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="45" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="39" t="s">
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="35" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="72" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:40" ht="70" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="X2" s="40" t="s">
+      <c r="X2" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" s="40" t="s">
+      <c r="Y2" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AA2" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="AC2" s="42" t="s">
+      <c r="AC2" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AD2" s="42" t="s">
+      <c r="AD2" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AE2" s="42" t="s">
+      <c r="AE2" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AG2" s="42" t="s">
+      <c r="AG2" s="38" t="s">
         <v>231</v>
       </c>
       <c r="AH2" s="5" t="s">
@@ -2131,7 +2091,7 @@
       <c r="AL2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2142,10 +2102,10 @@
       <c r="B3" s="2">
         <v>20161250</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2157,11 +2117,11 @@
       <c r="G3" s="3">
         <v>422</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <f t="shared" ref="H3:H31" si="0">I3*0.8+AH3*0.2</f>
         <v>90.333333333333343</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <v>90.666666666666671</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -2242,7 +2202,7 @@
       <c r="AL3" s="2">
         <v>15</v>
       </c>
-      <c r="AM3" s="9">
+      <c r="AM3" s="8">
         <v>17</v>
       </c>
     </row>
@@ -2253,10 +2213,10 @@
       <c r="B4" s="2">
         <v>20161399</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2268,11 +2228,11 @@
       <c r="G4" s="3">
         <v>479</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="29">
         <f t="shared" si="0"/>
         <v>89.590196078431376</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="28">
         <v>92.362745098039213</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -2357,7 +2317,7 @@
       <c r="AL4" s="2">
         <v>6.5</v>
       </c>
-      <c r="AM4" s="9">
+      <c r="AM4" s="8">
         <v>17</v>
       </c>
     </row>
@@ -2368,10 +2328,10 @@
       <c r="B5" s="2">
         <v>20161732</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -2383,11 +2343,11 @@
       <c r="G5" s="3">
         <v>351</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="29">
         <f t="shared" si="0"/>
         <v>88.905436893203884</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="28">
         <v>93.106796116504853</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -2470,7 +2430,7 @@
       <c r="AL5" s="2">
         <v>6.3</v>
       </c>
-      <c r="AM5" s="9">
+      <c r="AM5" s="8">
         <v>15.5</v>
       </c>
     </row>
@@ -2481,10 +2441,10 @@
       <c r="B6" s="2">
         <v>20161204</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2496,11 +2456,11 @@
       <c r="G6" s="3">
         <v>467</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="29">
         <f t="shared" si="0"/>
         <v>86.615384615384627</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <v>88.394230769230774</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -2585,7 +2545,7 @@
       <c r="AL6" s="2">
         <v>7.1</v>
       </c>
-      <c r="AM6" s="9">
+      <c r="AM6" s="8">
         <v>16</v>
       </c>
     </row>
@@ -2596,10 +2556,10 @@
       <c r="B7" s="2">
         <v>20161413</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2611,11 +2571,11 @@
       <c r="G7" s="2">
         <v>543</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="29">
         <f t="shared" si="0"/>
         <v>86.365217391304355</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <v>92.206521739130437</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -2694,7 +2654,7 @@
       <c r="AL7" s="2">
         <v>5</v>
       </c>
-      <c r="AM7" s="9">
+      <c r="AM7" s="8">
         <v>17</v>
       </c>
     </row>
@@ -2705,13 +2665,13 @@
       <c r="B8" s="2">
         <v>20162730</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="2">
@@ -2720,11 +2680,11 @@
       <c r="G8" s="2">
         <v>482</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <f t="shared" si="0"/>
         <v>85.724770642201833</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <v>91.155963302752298</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -2811,7 +2771,7 @@
       <c r="AL8" s="2">
         <v>5</v>
       </c>
-      <c r="AM8" s="9">
+      <c r="AM8" s="8">
         <v>15</v>
       </c>
     </row>
@@ -2822,10 +2782,10 @@
       <c r="B9" s="2">
         <v>20161309</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2835,11 +2795,11 @@
         <v>474</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="30">
+      <c r="H9" s="29">
         <f t="shared" si="0"/>
         <v>83.258558558558562</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <v>89.198198198198199</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -2928,7 +2888,7 @@
       <c r="AL9" s="2">
         <v>5.5</v>
       </c>
-      <c r="AM9" s="9">
+      <c r="AM9" s="8">
         <v>16</v>
       </c>
     </row>
@@ -2939,26 +2899,26 @@
       <c r="B10" s="2">
         <v>20161416</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="30">
         <v>450</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="31">
         <v>425</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="29">
         <f t="shared" si="0"/>
         <v>82.505825242718458</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <v>85.757281553398059</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -3041,7 +3001,7 @@
       <c r="AL10" s="2">
         <v>7</v>
       </c>
-      <c r="AM10" s="9">
+      <c r="AM10" s="8">
         <v>17</v>
       </c>
     </row>
@@ -3052,10 +3012,10 @@
       <c r="B11" s="2">
         <v>20161457</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3067,11 +3027,11 @@
       <c r="G11" s="3">
         <v>528</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <f t="shared" si="0"/>
         <v>80.424242424242422</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <v>88.030303030303031</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -3152,7 +3112,7 @@
       <c r="AL11" s="2">
         <v>5</v>
       </c>
-      <c r="AM11" s="9">
+      <c r="AM11" s="8">
         <v>17</v>
       </c>
     </row>
@@ -3163,24 +3123,24 @@
       <c r="B12" s="2">
         <v>20161411</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="30">
         <v>439</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <f t="shared" si="0"/>
         <v>78.386868686868695</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="28">
         <v>85.858585858585855</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -3261,7 +3221,7 @@
       <c r="AL12" s="2">
         <v>5</v>
       </c>
-      <c r="AM12" s="9">
+      <c r="AM12" s="8">
         <v>15.5</v>
       </c>
     </row>
@@ -3272,24 +3232,24 @@
       <c r="B13" s="2">
         <v>20161422</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="33">
+      <c r="G13" s="31">
         <v>447</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="29">
         <f t="shared" si="0"/>
         <v>77.8</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="28">
         <v>85</v>
       </c>
       <c r="J13" s="3"/>
@@ -3344,19 +3304,19 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="AI13" s="34">
+      <c r="AI13" s="2">
         <v>20</v>
       </c>
-      <c r="AJ13" s="34">
+      <c r="AJ13" s="2">
         <v>5</v>
       </c>
-      <c r="AK13" s="34">
+      <c r="AK13" s="2">
         <v>3</v>
       </c>
-      <c r="AL13" s="34">
+      <c r="AL13" s="2">
         <v>5</v>
       </c>
-      <c r="AM13" s="36">
+      <c r="AM13" s="8">
         <v>16</v>
       </c>
     </row>
@@ -3367,10 +3327,10 @@
       <c r="B14" s="2">
         <v>20161386</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -3382,11 +3342,11 @@
       <c r="G14" s="3">
         <v>320</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="29">
         <f t="shared" si="0"/>
         <v>77.147999999999996</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="28">
         <v>81.61</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -3469,7 +3429,7 @@
       <c r="AL14" s="2">
         <v>8</v>
       </c>
-      <c r="AM14" s="9">
+      <c r="AM14" s="8">
         <v>17</v>
       </c>
     </row>
@@ -3477,29 +3437,29 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="1">
         <v>20161397</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="30">
         <v>432</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="31">
         <v>451</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="29">
         <f t="shared" si="0"/>
         <v>76.984292929292934</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="28">
         <v>80.161616161616166</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -3580,7 +3540,7 @@
       <c r="AL15" s="2">
         <v>6</v>
       </c>
-      <c r="AM15" s="9">
+      <c r="AM15" s="8">
         <v>17</v>
       </c>
     </row>
@@ -3591,24 +3551,24 @@
       <c r="B16" s="2">
         <v>20161450</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="30">
         <v>389</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="30">
+      <c r="H16" s="29">
         <f t="shared" si="0"/>
         <v>74.190630630630636</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="28">
         <v>79.288288288288285</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -3693,7 +3653,7 @@
       <c r="AL16" s="2">
         <v>5</v>
       </c>
-      <c r="AM16" s="9">
+      <c r="AM16" s="8">
         <v>16</v>
       </c>
     </row>
@@ -3704,10 +3664,10 @@
       <c r="B17" s="2">
         <v>20161235</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -3719,11 +3679,11 @@
       <c r="G17" s="3">
         <v>426</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="29">
         <f t="shared" si="0"/>
         <v>74.173831775700933</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <v>79.467289719626166</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -3808,7 +3768,7 @@
       <c r="AL17" s="2">
         <v>5</v>
       </c>
-      <c r="AM17" s="9">
+      <c r="AM17" s="8">
         <v>15</v>
       </c>
     </row>
@@ -3819,24 +3779,24 @@
       <c r="B18" s="2">
         <v>20161502</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="30">
         <v>429</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="30">
+      <c r="H18" s="29">
         <f t="shared" si="0"/>
         <v>73.443333333333342</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="28">
         <v>78.479166666666671</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -3917,7 +3877,7 @@
       <c r="AL18" s="2">
         <v>5</v>
       </c>
-      <c r="AM18" s="9">
+      <c r="AM18" s="8">
         <v>15.5</v>
       </c>
     </row>
@@ -3928,10 +3888,10 @@
       <c r="B19" s="2">
         <v>20161158</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -3943,11 +3903,11 @@
       <c r="G19" s="3">
         <v>487</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <f t="shared" si="0"/>
         <v>73.304761904761904</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="28">
         <v>79.38095238095238</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -4032,7 +3992,7 @@
       <c r="AL19" s="2">
         <v>5</v>
       </c>
-      <c r="AM19" s="9">
+      <c r="AM19" s="8">
         <v>16</v>
       </c>
     </row>
@@ -4043,26 +4003,26 @@
       <c r="B20" s="2">
         <v>20161376</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <v>442</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="31">
         <v>360</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="29">
         <f t="shared" si="0"/>
         <v>72.553535353535352</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="28">
         <v>78.191919191919197</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -4143,7 +4103,7 @@
       <c r="AL20" s="2">
         <v>5</v>
       </c>
-      <c r="AM20" s="9">
+      <c r="AM20" s="8">
         <v>17</v>
       </c>
     </row>
@@ -4154,10 +4114,10 @@
       <c r="B21" s="2">
         <v>20161281</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -4169,11 +4129,11 @@
       <c r="G21" s="3">
         <v>461</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="29">
         <f t="shared" si="0"/>
         <v>71.713131313131314</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <v>76.141414141414145</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -4254,7 +4214,7 @@
       <c r="AL21" s="2">
         <v>5</v>
       </c>
-      <c r="AM21" s="9">
+      <c r="AM21" s="8">
         <v>16</v>
       </c>
     </row>
@@ -4265,24 +4225,24 @@
       <c r="B22" s="2">
         <v>20161168</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <v>520</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="29">
         <f t="shared" si="0"/>
         <v>71.708333333333343</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="28">
         <v>77.635416666666671</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -4363,7 +4323,7 @@
       <c r="AL22" s="2">
         <v>5</v>
       </c>
-      <c r="AM22" s="9">
+      <c r="AM22" s="8">
         <v>15</v>
       </c>
     </row>
@@ -4374,10 +4334,10 @@
       <c r="B23" s="2">
         <v>20161448</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -4385,11 +4345,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="30">
+      <c r="H23" s="29">
         <f t="shared" si="0"/>
         <v>70.44598130841122</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <v>74.607476635514018</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -4472,7 +4432,7 @@
       <c r="AL23" s="2">
         <v>5</v>
       </c>
-      <c r="AM23" s="9">
+      <c r="AM23" s="8">
         <v>16</v>
       </c>
     </row>
@@ -4483,10 +4443,10 @@
       <c r="B24" s="2">
         <v>20161351</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -4498,11 +4458,11 @@
       <c r="G24" s="3">
         <v>408</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="29">
         <f t="shared" si="0"/>
         <v>69.474747474747474</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="28">
         <v>73.343434343434339</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -4583,7 +4543,7 @@
       <c r="AL24" s="2">
         <v>5</v>
       </c>
-      <c r="AM24" s="9">
+      <c r="AM24" s="8">
         <v>16</v>
       </c>
     </row>
@@ -4594,24 +4554,24 @@
       <c r="B25" s="2">
         <v>20161232</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="28">
+      <c r="G25" s="27">
         <v>458</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="29">
         <f t="shared" si="0"/>
         <v>68.674999999999997</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <v>73.71875</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -4680,19 +4640,19 @@
         <f t="shared" si="1"/>
         <v>48.5</v>
       </c>
-      <c r="AI25" s="35">
+      <c r="AI25" s="32">
         <v>20</v>
       </c>
-      <c r="AJ25" s="35">
+      <c r="AJ25" s="32">
         <v>5</v>
       </c>
-      <c r="AK25" s="35">
+      <c r="AK25" s="32">
         <v>3</v>
       </c>
-      <c r="AL25" s="35">
+      <c r="AL25" s="32">
         <v>5</v>
       </c>
-      <c r="AM25" s="37">
+      <c r="AM25" s="33">
         <v>15.5</v>
       </c>
     </row>
@@ -4703,24 +4663,24 @@
       <c r="B26" s="2">
         <v>20161183</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="28">
+      <c r="G26" s="27">
         <v>510</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="29">
         <f t="shared" si="0"/>
         <v>67.363265306122457</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="28">
         <v>72.204081632653057</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -4803,7 +4763,7 @@
       <c r="AL26" s="2">
         <v>5</v>
       </c>
-      <c r="AM26" s="9">
+      <c r="AM26" s="8">
         <v>15</v>
       </c>
     </row>
@@ -4814,10 +4774,10 @@
       <c r="B27" s="2">
         <v>20161304</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -4827,11 +4787,11 @@
         <v>419</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="30">
+      <c r="H27" s="29">
         <f t="shared" si="0"/>
         <v>67.177391304347822</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="28">
         <v>69.771739130434781</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -4910,7 +4870,7 @@
       <c r="AL27" s="2">
         <v>5</v>
       </c>
-      <c r="AM27" s="9">
+      <c r="AM27" s="8">
         <v>16</v>
       </c>
     </row>
@@ -4921,24 +4881,24 @@
       <c r="B28" s="2">
         <v>20161247</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="33">
+      <c r="G28" s="31">
         <v>431</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="29">
         <f t="shared" si="0"/>
         <v>66.533333333333346</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="28">
         <v>71.041666666666671</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -5019,7 +4979,7 @@
       <c r="AL28" s="2">
         <v>5</v>
       </c>
-      <c r="AM28" s="9">
+      <c r="AM28" s="8">
         <v>15.5</v>
       </c>
     </row>
@@ -5030,24 +4990,24 @@
       <c r="B29" s="2">
         <v>20161352</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="28">
+      <c r="G29" s="27">
         <v>428</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="29">
         <f t="shared" si="0"/>
         <v>66.054901960784321</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="28">
         <v>70.568627450980387</v>
       </c>
       <c r="J29" s="3" t="s">
@@ -5132,7 +5092,7 @@
       <c r="AL29" s="2">
         <v>5</v>
       </c>
-      <c r="AM29" s="9">
+      <c r="AM29" s="8">
         <v>15</v>
       </c>
     </row>
@@ -5143,24 +5103,24 @@
       <c r="B30" s="2">
         <v>20161436</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="30">
         <v>504</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="30">
+      <c r="H30" s="29">
         <f t="shared" si="0"/>
         <v>65.76097087378642</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="28">
         <v>69.126213592233015</v>
       </c>
       <c r="J30" s="3" t="s">
@@ -5241,7 +5201,7 @@
       <c r="AL30" s="2">
         <v>5</v>
       </c>
-      <c r="AM30" s="9">
+      <c r="AM30" s="8">
         <v>14.5</v>
       </c>
     </row>
@@ -5252,10 +5212,10 @@
       <c r="B31" s="2">
         <v>20151122</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -5265,11 +5225,11 @@
         <v>467</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="30">
+      <c r="H31" s="29">
         <f t="shared" si="0"/>
         <v>58.536792452830191</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="28">
         <v>60.358490566037737</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -5342,7 +5302,7 @@
       <c r="AL31" s="2">
         <v>5</v>
       </c>
-      <c r="AM31" s="9">
+      <c r="AM31" s="8">
         <v>16</v>
       </c>
     </row>
@@ -5385,7 +5345,7 @@
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
-      <c r="AM32" s="9"/>
+      <c r="AM32" s="8"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -5426,7 +5386,7 @@
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
-      <c r="AM33" s="9"/>
+      <c r="AM33" s="8"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
@@ -5441,7 +5401,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="7"/>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -5467,7 +5427,7 @@
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
-      <c r="AM34" s="9"/>
+      <c r="AM34" s="8"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5488,7 +5448,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B7:Z35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:Z35">
     <sortCondition descending="1" ref="H7:H35"/>
   </sortState>
   <mergeCells count="10">
@@ -5517,1260 +5477,1260 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="9.44140625" style="14" customWidth="1"/>
-    <col min="3" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="36.88671875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="23.88671875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="9.453125" style="13" customWidth="1"/>
+    <col min="3" max="7" width="9" style="13"/>
+    <col min="8" max="8" width="36.90625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="23.90625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="16.90625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="19.08984375" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" ht="28" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="40" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="399.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13">
+    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12">
         <v>20161250</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>89</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13">
+    <row r="3" spans="1:13" ht="84" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12">
         <v>20161204</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>79.5</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="97.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13">
+    <row r="4" spans="1:13" ht="96" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12">
         <v>20161399</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>78.5</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13">
+    <row r="5" spans="1:13" ht="84" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12">
         <v>20161732</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>72.099999999999994</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="248.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13">
+    <row r="6" spans="1:13" ht="276" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12">
         <v>20161416</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>69.5</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13">
+    <row r="7" spans="1:13" ht="84" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12">
         <v>20161397</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>64.275000000000006</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13">
+    <row r="8" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12">
         <v>20162730</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>64</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="54" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13">
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12">
         <v>20161413</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>63</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="54" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13">
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12">
         <v>20161386</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>59.3</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13">
+    <row r="11" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12">
         <v>20161309</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>59.5</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13">
+    <row r="12" spans="1:13" s="17" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12">
         <v>20161304</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>56.8</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13">
+    <row r="13" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12">
         <v>20161281</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>54</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13">
+    <row r="14" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12">
         <v>20161235</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>53</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20">
+    <row r="15" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19">
         <v>20161351</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>54</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13">
+    <row r="16" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12">
         <v>20161450</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>53.8</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13">
+    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12">
         <v>20161448</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>53.8</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13">
+    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12">
         <v>20161502</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>53.3</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="75.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13">
+    <row r="19" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12">
         <v>20161436</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>52.3</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13">
+    <row r="20" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12">
         <v>20151122</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>51.25</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="54" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13">
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12">
         <v>20161376</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>50</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="54" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13">
+    <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12">
         <v>20161457</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>50</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13">
+    <row r="23" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12">
         <v>20161158</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>49</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13">
+    <row r="24" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12">
         <v>20161422</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>49</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13">
+    <row r="25" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12">
         <v>20161247</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>48.5</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13">
+    <row r="26" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12">
         <v>20161232</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <v>48.5</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13">
+    <row r="27" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12">
         <v>20161411</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <v>48.5</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13">
+    <row r="28" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12">
         <v>20161168</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <v>48</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13">
+    <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12">
         <v>20161183</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <v>48</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="L29" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13">
+    <row r="30" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12">
         <v>20161352</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <v>48</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="L30" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="16"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="16"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="16"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="16"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="15"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="16"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="15"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="16"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="16"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="15"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="16"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="15"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="16"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="15"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="16"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="15"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
     </row>
   </sheetData>
-  <sortState ref="A2:L41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
     <sortCondition descending="1" ref="G2:G41"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6785,7 +6745,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
